--- a/ŁKS_stats.xlsx
+++ b/ŁKS_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B42383C6-A92D-4CD0-8A4C-C38AD0FBF5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DD6753-2E86-4F27-8E46-8CF55D6A24F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AB92CA0A-5EED-4E18-BF57-3EEA7EC7DE3E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arkusz1!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -548,126 +548,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D682F6-B03B-4A49-A429-03901834171A}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1243</v>
       </c>
       <c r="E2">
-        <v>1243</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>46</v>
       </c>
+      <c r="D3">
+        <v>635</v>
+      </c>
       <c r="E3">
-        <v>635</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -675,315 +678,315 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="C4">
+      <c r="B4">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>266</v>
       </c>
       <c r="E4">
-        <v>266</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>6</v>
       </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
       <c r="J4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="C5">
+      <c r="B5">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>983</v>
       </c>
       <c r="E5">
-        <v>983</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>12</v>
-      </c>
       <c r="J5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
-      <c r="C6">
+      <c r="B6">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>46</v>
       </c>
+      <c r="D6">
+        <v>890</v>
+      </c>
       <c r="E6">
-        <v>890</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
-      <c r="C7">
+      <c r="B7">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>46</v>
       </c>
+      <c r="D7">
+        <v>606</v>
+      </c>
       <c r="E7">
-        <v>606</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
+      <c r="B8">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
+      <c r="D8">
+        <v>560</v>
+      </c>
       <c r="E8">
-        <v>560</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>8</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="C9">
+      <c r="B9">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
+      <c r="D9">
+        <v>990</v>
+      </c>
       <c r="E9">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="C10">
+      <c r="B10">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
+      <c r="D10">
+        <v>712</v>
+      </c>
       <c r="E10">
-        <v>712</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="C11">
+      <c r="B11">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
+      <c r="D11">
+        <v>1260</v>
+      </c>
       <c r="E11">
-        <v>1260</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -992,51 +995,51 @@
         <v>2</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="C12">
+      <c r="B12">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
-        <v>2</v>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>643</v>
       </c>
       <c r="E12">
-        <v>643</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1044,37 +1047,37 @@
       <c r="M12">
         <v>0</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="B13">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
+      <c r="D13">
+        <v>270</v>
+      </c>
       <c r="E13">
-        <v>270</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1085,20 +1088,20 @@
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="B14">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s">
         <v>14</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14">
         <v>0</v>
       </c>
@@ -1112,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1126,37 +1129,37 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="B15">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s">
         <v>14</v>
       </c>
+      <c r="D15">
+        <v>90</v>
+      </c>
       <c r="E15">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1167,61 +1170,61 @@
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
+      <c r="B16">
         <v>33</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s">
         <v>14</v>
       </c>
+      <c r="D16">
+        <v>1260</v>
+      </c>
       <c r="E16">
-        <v>1260</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>14</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
+      <c r="B17">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s">
         <v>14</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17">
         <v>0</v>
       </c>
@@ -1235,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1249,37 +1252,37 @@
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="C18">
+      <c r="B18">
         <v>20</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
+      <c r="D18">
+        <v>834</v>
+      </c>
       <c r="E18">
-        <v>834</v>
+        <v>11</v>
       </c>
       <c r="F18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1290,20 +1293,20 @@
       <c r="M18">
         <v>0</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="C19">
+      <c r="B19">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" t="s">
         <v>20</v>
       </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="E19">
         <v>0</v>
       </c>
@@ -1331,119 +1334,119 @@
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C20">
+      <c r="B20">
         <v>24</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" t="s">
         <v>20</v>
       </c>
+      <c r="D20">
+        <v>877</v>
+      </c>
       <c r="E20">
-        <v>877</v>
+        <v>12</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="C21">
+      <c r="B21">
         <v>22</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" t="s">
         <v>20</v>
       </c>
+      <c r="D21">
+        <v>870</v>
+      </c>
       <c r="E21">
-        <v>870</v>
+        <v>12</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>3</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>7</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="C22">
+      <c r="B22">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22" t="s">
         <v>20</v>
       </c>
+      <c r="D22">
+        <v>287</v>
+      </c>
       <c r="E22">
-        <v>287</v>
+        <v>4</v>
       </c>
       <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>4</v>
       </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1454,102 +1457,102 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="C23">
+      <c r="B23">
         <v>33</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
+      <c r="D23">
+        <v>883</v>
+      </c>
       <c r="E23">
-        <v>883</v>
+        <v>10</v>
       </c>
       <c r="F23">
         <v>10</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="C24">
+      <c r="B24">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24" t="s">
         <v>20</v>
       </c>
+      <c r="D24">
+        <v>77</v>
+      </c>
       <c r="E24">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>4</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="C25">
+      <c r="B25">
         <v>20</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C25" t="s">
         <v>20</v>
       </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
       <c r="E25">
         <v>0</v>
       </c>
@@ -1577,78 +1580,78 @@
       <c r="M25">
         <v>0</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="C26">
+      <c r="B26">
         <v>20</v>
       </c>
-      <c r="D26" t="s">
-        <v>2</v>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>236</v>
       </c>
       <c r="E26">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J26">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="C27">
+      <c r="B27">
         <v>18</v>
       </c>
-      <c r="D27" t="s">
-        <v>2</v>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>46</v>
       </c>
       <c r="E27">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>3</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
       <c r="H27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1659,78 +1662,78 @@
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="C28">
+      <c r="B28">
         <v>24</v>
       </c>
-      <c r="D28" t="s">
-        <v>2</v>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1058</v>
       </c>
       <c r="E28">
-        <v>1058</v>
+        <v>14</v>
       </c>
       <c r="F28">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="C29">
+      <c r="B29">
         <v>23</v>
       </c>
-      <c r="D29" t="s">
-        <v>2</v>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>39</v>
       </c>
       <c r="E29">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>4</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
       <c r="H29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1741,19 +1744,19 @@
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="C30">
+      <c r="B30">
         <v>21</v>
       </c>
-      <c r="D30" t="s">
-        <v>2</v>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1782,19 +1785,19 @@
       <c r="M30">
         <v>0</v>
       </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
-      <c r="C31">
+      <c r="B31">
         <v>20</v>
       </c>
-      <c r="D31" t="s">
-        <v>2</v>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1823,101 +1826,101 @@
       <c r="M31">
         <v>0</v>
       </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="C32">
+      <c r="B32">
         <v>34</v>
       </c>
-      <c r="D32" t="s">
-        <v>2</v>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>498</v>
       </c>
       <c r="E32">
-        <v>498</v>
+        <v>13</v>
       </c>
       <c r="F32">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
         <v>5</v>
       </c>
-      <c r="H32">
-        <v>8</v>
-      </c>
       <c r="I32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J32">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
-      <c r="C33">
+      <c r="B33">
         <v>24</v>
       </c>
-      <c r="D33" t="s">
-        <v>2</v>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>843</v>
       </c>
       <c r="E33">
-        <v>843</v>
+        <v>10</v>
       </c>
       <c r="F33">
         <v>10</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
-      <c r="C34">
+      <c r="B34">
         <v>19</v>
       </c>
-      <c r="D34" t="s">
-        <v>2</v>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1932,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1946,25 +1949,25 @@
       <c r="M34">
         <v>0</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
-      <c r="C35">
+      <c r="B35">
         <v>32</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C35" t="s">
         <v>46</v>
       </c>
+      <c r="D35">
+        <v>435</v>
+      </c>
       <c r="E35">
-        <v>435</v>
+        <v>8</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -1973,10 +1976,10 @@
         <v>4</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1985,39 +1988,39 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
-      <c r="C36">
+      <c r="B36">
         <v>29</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C36" t="s">
         <v>46</v>
       </c>
+      <c r="D36">
+        <v>111</v>
+      </c>
       <c r="E36">
-        <v>111</v>
+        <v>6</v>
       </c>
       <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>6</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
       <c r="H36">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J36">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2028,61 +2031,61 @@
       <c r="M36">
         <v>0</v>
       </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
-      <c r="C37">
+      <c r="B37">
         <v>19</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C37" t="s">
         <v>46</v>
       </c>
+      <c r="D37">
+        <v>302</v>
+      </c>
       <c r="E37">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J37">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
-      <c r="C38">
+      <c r="B38">
         <v>20</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C38" t="s">
         <v>46</v>
       </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
       <c r="E38">
         <v>0</v>
       </c>
@@ -2096,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2110,14 +2113,11 @@
       <c r="M38">
         <v>0</v>
       </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{42D682F6-B03B-4A49-A429-03901834171A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N38">
-      <sortCondition descending="1" ref="K1"/>
+  <autoFilter ref="A1:M1" xr:uid="{42D682F6-B03B-4A49-A429-03901834171A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M38">
+      <sortCondition descending="1" ref="J1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ŁKS_stats.xlsx
+++ b/ŁKS_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA62A5B-A09A-4C2B-9C1B-250CC0FA3B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE14A04-CCE4-43A6-AE02-74BC038E8EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AB92CA0A-5EED-4E18-BF57-3EEA7EC7DE3E}"/>
   </bookViews>
@@ -39,24 +39,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Wiek</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
     <t>Minutes played</t>
   </si>
   <si>
-    <t>Występy</t>
-  </si>
-  <si>
-    <t>Skład</t>
-  </si>
-  <si>
     <t>Substitute in</t>
   </si>
   <si>
@@ -184,6 +172,18 @@
   </si>
   <si>
     <t>K. Ibe-Torti</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Appearances</t>
+  </si>
+  <si>
+    <t>1 squad</t>
   </si>
 </sst>
 </file>
@@ -539,61 +539,66 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>270</v>
@@ -628,13 +633,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -669,13 +674,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>90</v>
@@ -710,13 +715,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>1350</v>
@@ -751,13 +756,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -792,13 +797,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>880</v>
@@ -833,13 +838,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>560</v>
@@ -874,13 +879,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -915,13 +920,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>921</v>
@@ -956,13 +961,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>960</v>
@@ -997,13 +1002,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>377</v>
@@ -1038,13 +1043,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>883</v>
@@ -1079,13 +1084,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>77</v>
@@ -1120,13 +1125,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>1350</v>
@@ -1161,13 +1166,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>983</v>
@@ -1202,13 +1207,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>980</v>
@@ -1243,13 +1248,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>236</v>
@@ -1284,13 +1289,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>46</v>
@@ -1325,13 +1330,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1366,13 +1371,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>1148</v>
@@ -1407,13 +1412,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>39</v>
@@ -1448,13 +1453,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>1036</v>
@@ -1489,13 +1494,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>1333</v>
@@ -1530,13 +1535,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>542</v>
@@ -1571,13 +1576,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>843</v>
@@ -1612,13 +1617,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1653,13 +1658,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D28">
         <v>502</v>
@@ -1694,13 +1699,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D29">
         <v>134</v>
@@ -1735,13 +1740,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1776,13 +1781,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D31">
         <v>302</v>
@@ -1817,13 +1822,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D32">
         <v>266</v>
@@ -1858,13 +1863,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D33">
         <v>614</v>
@@ -1899,13 +1904,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D34">
         <v>717</v>

--- a/ŁKS_stats.xlsx
+++ b/ŁKS_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE14A04-CCE4-43A6-AE02-74BC038E8EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F399DA-C080-4646-AA6A-E05004A58D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AB92CA0A-5EED-4E18-BF57-3EEA7EC7DE3E}"/>
+    <workbookView xWindow="3120" yWindow="1845" windowWidth="22155" windowHeight="19755" xr2:uid="{AB92CA0A-5EED-4E18-BF57-3EEA7EC7DE3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>P</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>1 squad</t>
+  </si>
+  <si>
+    <t>M. Kowalczyk</t>
   </si>
 </sst>
 </file>
@@ -536,17 +539,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D682F6-B03B-4A49-A429-03901834171A}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -616,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -724,13 +727,13 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>1350</v>
+        <v>1620</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -806,13 +809,13 @@
         <v>16</v>
       </c>
       <c r="D7">
-        <v>880</v>
+        <v>1150</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -827,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -847,13 +850,13 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>560</v>
+        <v>830</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -868,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -929,13 +932,13 @@
         <v>16</v>
       </c>
       <c r="D10">
-        <v>921</v>
+        <v>1011</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -970,13 +973,13 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>960</v>
+        <v>1050</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -985,13 +988,13 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1026,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1052,22 +1055,22 @@
         <v>16</v>
       </c>
       <c r="D13">
-        <v>883</v>
+        <v>1019</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1093,13 +1096,13 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1108,13 +1111,13 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1134,22 +1137,22 @@
         <v>16</v>
       </c>
       <c r="D15">
-        <v>1350</v>
+        <v>1394</v>
       </c>
       <c r="E15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15">
         <v>15</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1175,28 +1178,28 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>983</v>
+        <v>1080</v>
       </c>
       <c r="E16">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
         <v>13</v>
       </c>
-      <c r="G16">
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
         <v>4</v>
-      </c>
-      <c r="H16">
-        <v>12</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1216,22 +1219,22 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>980</v>
+        <v>1062</v>
       </c>
       <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
         <v>12</v>
       </c>
-      <c r="F17">
-        <v>11</v>
-      </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1289,31 +1292,31 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1330,7 +1333,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -1339,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1371,37 +1374,37 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1148</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1412,37 +1415,37 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>1210</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1453,37 +1456,37 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1036</v>
+        <v>39</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1494,37 +1497,37 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1333</v>
+        <v>1036</v>
       </c>
       <c r="E24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24">
+        <v>11</v>
+      </c>
+      <c r="I24">
         <v>6</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
       <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
         <v>5</v>
-      </c>
-      <c r="K24">
-        <v>4</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1535,37 +1538,37 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>542</v>
+        <v>1580</v>
       </c>
       <c r="E25">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F25">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
         <v>5</v>
       </c>
-      <c r="G25">
-        <v>9</v>
-      </c>
-      <c r="H25">
+      <c r="K25">
         <v>5</v>
-      </c>
-      <c r="I25">
-        <v>10</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>4</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1576,37 +1579,37 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>843</v>
+        <v>607</v>
       </c>
       <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
         <v>10</v>
       </c>
-      <c r="F26">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -1617,37 +1620,37 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1071</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -1658,31 +1661,31 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1694,83 +1697,83 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29">
-        <v>134</v>
+        <v>701</v>
       </c>
       <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29">
         <v>7</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -1781,37 +1784,37 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
       </c>
       <c r="D31">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -1822,16 +1825,16 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
       </c>
       <c r="D32">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="E32">
         <v>9</v>
@@ -1843,16 +1846,16 @@
         <v>6</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -1863,37 +1866,37 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B33">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
       </c>
       <c r="D33">
-        <v>614</v>
+        <v>407</v>
       </c>
       <c r="E33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G33">
         <v>6</v>
       </c>
       <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
         <v>6</v>
       </c>
-      <c r="I33">
-        <v>7</v>
-      </c>
       <c r="J33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -1904,42 +1907,83 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
       </c>
       <c r="D34">
-        <v>717</v>
+        <v>619</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35">
+        <v>740</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
+      <c r="F35">
         <v>8</v>
       </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
         <v>7</v>
       </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34">
+      <c r="I35">
         <v>3</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>0</v>
       </c>
     </row>

--- a/ŁKS_stats.xlsx
+++ b/ŁKS_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F399DA-C080-4646-AA6A-E05004A58D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303C37CF-D150-43B5-AB42-3D9FC3E4F796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1845" windowWidth="22155" windowHeight="19755" xr2:uid="{AB92CA0A-5EED-4E18-BF57-3EEA7EC7DE3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AB92CA0A-5EED-4E18-BF57-3EEA7EC7DE3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>P</t>
   </si>
@@ -75,9 +75,6 @@
     <t>A. Bobek</t>
   </si>
   <si>
-    <t>M. Kot</t>
-  </si>
-  <si>
     <t>M. Kozioł</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
   </si>
   <si>
     <t>M. Radaszkiewicz</t>
-  </si>
-  <si>
-    <t>M. Lipien</t>
   </si>
   <si>
     <t>K. Ibe-Torti</t>
@@ -539,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D682F6-B03B-4A49-A429-03901834171A}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD72"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,22 +548,22 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -619,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -680,19 +674,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>1890</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -701,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -721,19 +715,19 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -742,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -762,34 +756,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1414</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -800,40 +794,40 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
       <c r="D7">
-        <v>1150</v>
+        <v>980</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>4</v>
       </c>
       <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -844,37 +838,37 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -885,34 +879,34 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -926,19 +920,19 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>1170</v>
+      </c>
+      <c r="E10">
         <v>16</v>
       </c>
-      <c r="D10">
-        <v>1011</v>
-      </c>
-      <c r="E10">
-        <v>14</v>
-      </c>
       <c r="F10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -947,13 +941,13 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -967,34 +961,34 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>1050</v>
+        <v>467</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1008,34 +1002,34 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>377</v>
+        <v>1045</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1049,31 +1043,31 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>1019</v>
+        <v>406</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>5</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1082,42 +1076,42 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>257</v>
+        <v>1661</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1128,34 +1122,34 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
         <v>25</v>
       </c>
-      <c r="B15">
-        <v>29</v>
-      </c>
       <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>1230</v>
+      </c>
+      <c r="E15">
+        <v>22</v>
+      </c>
+      <c r="F15">
         <v>16</v>
       </c>
-      <c r="D15">
-        <v>1394</v>
-      </c>
-      <c r="E15">
-        <v>18</v>
-      </c>
-      <c r="F15">
-        <v>15</v>
-      </c>
       <c r="G15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
         <v>2</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1172,34 +1166,34 @@
         <v>34</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>1080</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1210,7 +1204,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>28</v>
@@ -1219,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1062</v>
+        <v>1132</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>12</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>5</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1251,7 +1245,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -1292,37 +1286,37 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>306</v>
       </c>
       <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1333,31 +1327,31 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>5</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>9</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1374,7 +1368,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -1383,22 +1377,22 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1415,7 +1409,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -1424,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1210</v>
+        <v>1392</v>
       </c>
       <c r="E22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I22">
         <v>5</v>
@@ -1445,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1456,10 +1450,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -1497,7 +1491,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>27</v>
@@ -1506,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1036</v>
+        <v>1126</v>
       </c>
       <c r="E24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1521,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1538,7 +1532,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>29</v>
@@ -1547,28 +1541,28 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1580</v>
+        <v>1831</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F25">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
         <v>7</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
       <c r="K25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1579,7 +1573,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>34</v>
@@ -1620,7 +1614,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>24</v>
@@ -1629,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1071</v>
+        <v>1338</v>
       </c>
       <c r="E27">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F27">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1650,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -1664,116 +1658,116 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>814</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="B29">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
       <c r="D29">
-        <v>701</v>
+        <v>586</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
         <v>7</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>5</v>
       </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
       <c r="I29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>2</v>
       </c>
-      <c r="I30">
-        <v>9</v>
-      </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -1784,37 +1778,37 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -1825,37 +1819,37 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>306</v>
+        <v>645</v>
       </c>
       <c r="E32">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
         <v>6</v>
       </c>
-      <c r="H32">
+      <c r="I32">
+        <v>11</v>
+      </c>
+      <c r="J32">
         <v>2</v>
       </c>
-      <c r="I32">
-        <v>12</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -1866,124 +1860,42 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33">
-        <v>407</v>
+        <v>763</v>
       </c>
       <c r="E33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J33">
         <v>3</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34">
-        <v>23</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34">
-        <v>619</v>
-      </c>
-      <c r="E34">
-        <v>14</v>
-      </c>
-      <c r="F34">
-        <v>7</v>
-      </c>
-      <c r="G34">
-        <v>7</v>
-      </c>
-      <c r="H34">
-        <v>6</v>
-      </c>
-      <c r="I34">
-        <v>9</v>
-      </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35">
-        <v>24</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35">
-        <v>740</v>
-      </c>
-      <c r="E35">
-        <v>11</v>
-      </c>
-      <c r="F35">
-        <v>8</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35">
-        <v>7</v>
-      </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
         <v>0</v>
       </c>
     </row>
